--- a/data/trans_camb/P73-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P73-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 11,72</t>
+          <t>-4,47; 12,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-67,89; -55,92</t>
+          <t>-67,31; -55,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 12,15</t>
+          <t>-4,03; 13,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,61; -52,1</t>
+          <t>-64,74; -52,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,26</t>
+          <t>-1,73; 9,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-64,18; -55,53</t>
+          <t>-64,34; -55,57</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 20,4</t>
+          <t>-7,07; 21,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 22,72</t>
+          <t>-6,1; 24,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 18,54</t>
+          <t>-2,67; 17,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,63</t>
+          <t>-4,51; 7,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,71</t>
+          <t>-7,27; 5,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-70,4; -61,35</t>
+          <t>-70,14; -61,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,61</t>
+          <t>-3,27; 8,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,75</t>
+          <t>-6,62; 5,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,47; -59,94</t>
+          <t>-68,23; -60,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,52</t>
+          <t>-2,89; 6,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,3</t>
+          <t>-5,72; 3,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-68,26; -61,98</t>
+          <t>-68,1; -61,99</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 12,35</t>
+          <t>-6,49; 12,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 7,47</t>
+          <t>-10,5; 8,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 14,14</t>
+          <t>-4,83; 14,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 9,46</t>
+          <t>-9,97; 9,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 10,2</t>
+          <t>-4,26; 9,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,21</t>
+          <t>-8,43; 4,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 0,24</t>
+          <t>-14,35; 1,57</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,99</t>
+          <t>-7,48; 6,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-73,68; -63,39</t>
+          <t>-73,83; -63,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 6,43</t>
+          <t>-7,79; 7,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 3,79</t>
+          <t>-10,79; 3,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,25; -57,24</t>
+          <t>-67,99; -57,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 1,65</t>
+          <t>-9,03; 1,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,05</t>
+          <t>-7,37; 3,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-68,94; -61,66</t>
+          <t>-68,89; -61,67</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 0,37</t>
+          <t>-19,94; 2,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 10,75</t>
+          <t>-10,42; 10,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 11,1</t>
+          <t>-11,97; 11,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 6,26</t>
+          <t>-16,35; 5,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 2,75</t>
+          <t>-13,47; 2,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,9</t>
+          <t>-10,9; 5,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,9</t>
+          <t>-8,08; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 9,17</t>
+          <t>-4,71; 9,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-71,16; -61,86</t>
+          <t>-71,19; -61,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,7</t>
+          <t>1,74; 14,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 12,65</t>
+          <t>-2,58; 11,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,43; -54,72</t>
+          <t>-64,29; -54,67</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,45</t>
+          <t>-0,34; 8,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,1</t>
+          <t>-1,43; 8,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-66,16; -59,06</t>
+          <t>-66,24; -59,49</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 7,87</t>
+          <t>-11,45; 8,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 14,47</t>
+          <t>-6,75; 15,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 26,76</t>
+          <t>2,71; 25,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 22,42</t>
+          <t>-4,11; 20,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 14,13</t>
+          <t>-0,51; 13,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 14,97</t>
+          <t>-2,17; 13,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 12,83</t>
+          <t>-5,54; 13,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 9,61</t>
+          <t>-9,1; 9,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-67,68; -53,67</t>
+          <t>-67,49; -54,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 7,66</t>
+          <t>-10,9; 7,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 12,59</t>
+          <t>-6,55; 12,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-72,2; -59,13</t>
+          <t>-72,42; -59,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,3</t>
+          <t>-5,8; 7,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,82</t>
+          <t>-5,0; 7,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-68,19; -58,59</t>
+          <t>-68,35; -58,89</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 23,44</t>
+          <t>-8,29; 23,84</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 17,14</t>
+          <t>-14,08; 17,42</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 12,36</t>
+          <t>-15,5; 11,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 20,26</t>
+          <t>-8,96; 20,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 12,06</t>
+          <t>-8,62; 13,09</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 12,98</t>
+          <t>-7,27; 13,46</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 8,45</t>
+          <t>-9,1; 7,28</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 4,62</t>
+          <t>-12,05; 4,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-71,29; -60,23</t>
+          <t>-71,34; -60,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 10,2</t>
+          <t>-6,85; 10,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 7,88</t>
+          <t>-8,3; 7,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-67,96; -56,05</t>
+          <t>-67,67; -56,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,51</t>
+          <t>-5,11; 6,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,76</t>
+          <t>-7,65; 4,28</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-67,5; -59,48</t>
+          <t>-68,06; -59,93</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 13,8</t>
+          <t>-13,12; 11,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 7,4</t>
+          <t>-16,86; 8,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 17,66</t>
+          <t>-10,22; 18,01</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 13,61</t>
+          <t>-12,59; 13,32</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,63</t>
+          <t>-7,7; 10,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 6,1</t>
+          <t>-11,37; 6,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 2,66</t>
+          <t>-7,53; 3,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -2,92</t>
+          <t>-13,97; -3,1</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-71,96; -64,38</t>
+          <t>-71,54; -63,92</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 6,37</t>
+          <t>-4,69; 6,41</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -6,37</t>
+          <t>-17,64; -6,89</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -59,4</t>
+          <t>-67,26; -59,53</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,96</t>
+          <t>-4,54; 3,01</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -6,67</t>
+          <t>-14,36; -6,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-68,35; -63,07</t>
+          <t>-68,41; -63,12</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 4,11</t>
+          <t>-10,78; 5,24</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -4,64</t>
+          <t>-19,83; -4,81</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 10,52</t>
+          <t>-7,18; 10,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -10,59</t>
+          <t>-26,79; -11,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,63</t>
+          <t>-6,66; 4,69</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -10,55</t>
+          <t>-21,52; -10,26</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,31</t>
+          <t>-4,33; 5,82</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,84</t>
+          <t>-6,26; 3,72</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-66,99; -59,96</t>
+          <t>-66,53; -59,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,42</t>
+          <t>-3,86; 5,44</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,39</t>
+          <t>-6,69; 3,11</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-66,71; -59,57</t>
+          <t>-66,34; -59,6</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,91</t>
+          <t>-2,97; 4,15</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,24</t>
+          <t>-4,83; 2,09</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-65,5; -60,46</t>
+          <t>-65,51; -60,6</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 8,77</t>
+          <t>-6,64; 9,66</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 6,44</t>
+          <t>-9,53; 6,15</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 8,96</t>
+          <t>-5,96; 8,95</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 5,5</t>
+          <t>-10,23; 5,2</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,34</t>
+          <t>-4,59; 6,74</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,65</t>
+          <t>-7,5; 3,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,69; 2,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,11; 0,59</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-67,07; -63,67</t>
+          <t>-67,06; -63,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,03; 4,65</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,52; 0,22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-64,13; -60,75</t>
+          <t>-64,14; -60,81</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,72; 2,65</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,77; -0,4</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-65,09; -62,75</t>
+          <t>-65,12; -62,87</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,05; 3,55</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,18; 0,92</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,05; 7,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,12; 0,32</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-1,12; 4,2</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,83; -0,65</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P73-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 12,08</t>
+          <t>-4,73; 11,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-67,31; -55,68</t>
+          <t>-67,85; -55,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 13,06</t>
+          <t>-4,64; 13,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,74; -52,23</t>
+          <t>-64,47; -52,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 9,68</t>
+          <t>-1,96; 9,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-64,34; -55,57</t>
+          <t>-64,55; -55,92</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 21,61</t>
+          <t>-7,15; 21,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 24,27</t>
+          <t>-7,65; 25,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 17,23</t>
+          <t>-3,16; 17,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 7,69</t>
+          <t>-4,61; 7,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 5,0</t>
+          <t>-7,82; 4,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-70,14; -61,25</t>
+          <t>-70,29; -61,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 8,67</t>
+          <t>-3,43; 8,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 5,79</t>
+          <t>-6,34; 5,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,23; -60,05</t>
+          <t>-68,74; -60,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 6,11</t>
+          <t>-2,5; 6,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 3,05</t>
+          <t>-4,97; 3,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-68,1; -61,99</t>
+          <t>-68,09; -62,03</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 12,1</t>
+          <t>-6,7; 12,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 8,12</t>
+          <t>-11,37; 7,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 14,23</t>
+          <t>-5,21; 13,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 9,32</t>
+          <t>-9,49; 9,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,72</t>
+          <t>-3,66; 9,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 4,95</t>
+          <t>-7,3; 5,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 1,57</t>
+          <t>-14,4; -0,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 6,58</t>
+          <t>-8,4; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-73,83; -63,39</t>
+          <t>-74,15; -63,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 7,01</t>
+          <t>-8,19; 6,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 3,48</t>
+          <t>-10,79; 3,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,99; -57,36</t>
+          <t>-67,46; -57,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 1,83</t>
+          <t>-8,68; 1,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 3,23</t>
+          <t>-6,89; 3,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-68,89; -61,67</t>
+          <t>-69,0; -61,72</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 2,15</t>
+          <t>-20,52; -0,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 10,02</t>
+          <t>-11,59; 10,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 11,88</t>
+          <t>-12,51; 11,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 5,91</t>
+          <t>-16,77; 6,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 2,77</t>
+          <t>-12,86; 2,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 5,2</t>
+          <t>-10,14; 5,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,25</t>
+          <t>-7,42; 4,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 9,68</t>
+          <t>-4,88; 9,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-71,19; -61,0</t>
+          <t>-71,74; -61,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 14,26</t>
+          <t>2,08; 14,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 11,52</t>
+          <t>-1,93; 11,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,29; -54,67</t>
+          <t>-64,57; -54,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 8,08</t>
+          <t>-0,86; 7,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,32</t>
+          <t>-1,54; 8,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-66,24; -59,49</t>
+          <t>-66,27; -59,09</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 8,29</t>
+          <t>-10,43; 7,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 15,13</t>
+          <t>-6,89; 14,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 25,61</t>
+          <t>3,21; 26,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 20,63</t>
+          <t>-2,9; 21,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 13,65</t>
+          <t>-1,34; 13,21</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 13,76</t>
+          <t>-2,31; 15,02</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 13,05</t>
+          <t>-6,49; 12,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 9,87</t>
+          <t>-9,2; 9,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -54,14</t>
+          <t>-67,58; -54,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 7,36</t>
+          <t>-10,43; 8,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 12,01</t>
+          <t>-5,73; 12,5</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-72,42; -59,66</t>
+          <t>-72,4; -58,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 7,68</t>
+          <t>-6,05; 7,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 7,96</t>
+          <t>-4,86; 8,61</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-68,35; -58,89</t>
+          <t>-68,07; -58,76</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 23,84</t>
+          <t>-9,72; 23,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,08; 17,42</t>
+          <t>-14,04; 16,25</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 11,73</t>
+          <t>-14,62; 13,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,96; 20,16</t>
+          <t>-7,9; 20,96</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 13,09</t>
+          <t>-9,04; 12,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 13,46</t>
+          <t>-7,44; 14,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 7,28</t>
+          <t>-7,8; 7,8</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,05; 4,87</t>
+          <t>-11,01; 5,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-71,34; -60,19</t>
+          <t>-71,36; -60,35</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 10,16</t>
+          <t>-5,6; 11,06</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 7,78</t>
+          <t>-8,21; 7,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-67,67; -56,52</t>
+          <t>-67,69; -56,29</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 6,5</t>
+          <t>-4,63; 6,77</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 4,28</t>
+          <t>-8,08; 3,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-68,06; -59,93</t>
+          <t>-67,98; -59,98</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 11,64</t>
+          <t>-11,26; 12,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 8,01</t>
+          <t>-15,78; 8,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 18,01</t>
+          <t>-8,48; 19,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 13,32</t>
+          <t>-12,56; 12,47</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 10,74</t>
+          <t>-7,03; 11,03</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 6,91</t>
+          <t>-12,07; 5,98</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 3,43</t>
+          <t>-7,43; 3,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,97; -3,1</t>
+          <t>-14,13; -3,19</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-71,54; -63,92</t>
+          <t>-71,89; -64,07</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,41</t>
+          <t>-4,19; 6,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -6,89</t>
+          <t>-18,0; -6,73</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-67,26; -59,53</t>
+          <t>-67,23; -59,62</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,01</t>
+          <t>-4,32; 2,87</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -6,5</t>
+          <t>-14,43; -6,8</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-68,41; -63,12</t>
+          <t>-68,28; -63,1</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 5,24</t>
+          <t>-10,43; 4,95</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,83; -4,81</t>
+          <t>-19,83; -4,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 10,41</t>
+          <t>-6,37; 10,37</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,79; -11,56</t>
+          <t>-27,4; -11,11</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,69</t>
+          <t>-6,37; 4,56</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-21,52; -10,26</t>
+          <t>-21,12; -10,57</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 5,82</t>
+          <t>-4,32; 5,18</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 3,72</t>
+          <t>-5,85; 3,7</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-66,53; -59,59</t>
+          <t>-66,76; -59,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,44</t>
+          <t>-4,67; 5,54</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 3,11</t>
+          <t>-6,52; 3,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-66,34; -59,6</t>
+          <t>-66,62; -59,33</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,15</t>
+          <t>-2,94; 4,08</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 2,09</t>
+          <t>-5,03; 1,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-65,51; -60,6</t>
+          <t>-65,53; -60,55</t>
         </is>
       </c>
     </row>
@@ -2303,12 +2303,12 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 9,66</t>
+          <t>-6,57; 8,56</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 6,15</t>
+          <t>-8,94; 6,03</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 8,95</t>
+          <t>-7,15; 9,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 5,2</t>
+          <t>-10,07; 5,94</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 6,74</t>
+          <t>-4,59; 6,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 3,32</t>
+          <t>-7,68; 3,18</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 2,28</t>
+          <t>-2,82; 1,84</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 0,59</t>
+          <t>-4,21; 0,38</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-67,06; -63,62</t>
+          <t>-66,98; -63,7</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,65</t>
+          <t>-0,12; 4,46</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,22</t>
+          <t>-4,45; 0,18</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-64,14; -60,81</t>
+          <t>-64,33; -60,78</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,65</t>
+          <t>-0,63; 2,69</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-3,77; -0,4</t>
+          <t>-3,62; -0,43</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-65,12; -62,87</t>
+          <t>-65,08; -62,75</t>
         </is>
       </c>
     </row>
@@ -2519,12 +2519,12 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,55</t>
+          <t>-4,2; 2,85</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 0,92</t>
+          <t>-6,34; 0,58</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,59</t>
+          <t>-0,19; 7,23</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 0,32</t>
+          <t>-7,01; 0,28</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 4,2</t>
+          <t>-0,96; 4,27</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -0,65</t>
+          <t>-5,62; -0,68</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P73-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-61,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>4,28</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>4,28</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-58,34</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>3,94</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-60,16</t>
         </is>
       </c>
     </row>
@@ -690,42 +644,27 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 11,95</t>
+          <t>-4,37; 11,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-67,85; -55,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-5,68; 12,15</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 13,31</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,47; -52,09</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 9,97</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-64,55; -55,92</t>
+          <t>-1,52; 10,26</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,34%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>6,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -796,7 +720,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 21,18</t>
+          <t>-6,72; 20,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,32 +730,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-8,79; 22,72</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-7,65; 25,12</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 17,35</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-2,22; 18,54</t>
         </is>
       </c>
     </row>
@@ -858,37 +767,22 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-65,82</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-64,44</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,02</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
           <t>-1,09</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-65,12</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,84</t>
+          <t>-5,14; 7,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 4,45</t>
+          <t>-8,25; 4,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-70,29; -61,47</t>
+          <t>-3,62; 8,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 8,26</t>
+          <t>-6,81; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 5,72</t>
+          <t>-2,21; 6,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,74; -60,19</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 6,11</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 3,48</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-68,09; -62,03</t>
+          <t>-5,05; 3,3</t>
         </is>
       </c>
     </row>
@@ -964,37 +843,22 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
           <t>-1,67%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 12,56</t>
+          <t>-7,39; 12,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 7,03</t>
+          <t>-11,84; 7,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,4; 14,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 13,58</t>
+          <t>-10,1; 9,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 9,28</t>
+          <t>-3,47; 10,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 9,79</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-7,3; 5,63</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,66; 5,21</t>
         </is>
       </c>
     </row>
@@ -1074,37 +923,22 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-68,7</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-3,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-62,24</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,76</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
           <t>-2,1</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-65,39</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -0,27</t>
+          <t>-15,05; 0,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 6,65</t>
+          <t>-7,72; 6,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-74,15; -63,58</t>
+          <t>-8,48; 6,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 6,67</t>
+          <t>-10,9; 3,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 3,54</t>
+          <t>-9,1; 1,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-67,46; -57,13</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,68; 1,66</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; 3,37</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-69,0; -61,72</t>
+          <t>-7,33; 3,05</t>
         </is>
       </c>
     </row>
@@ -1180,37 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-1,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-5,83%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
           <t>-3,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,52; -0,56</t>
+          <t>-20,8; 0,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 10,21</t>
+          <t>-10,66; 10,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,85; 11,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 11,57</t>
+          <t>-16,68; 6,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 6,15</t>
+          <t>-13,33; 2,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-12,86; 2,73</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,14; 5,54</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-10,82; 4,9</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-66,43</t>
+          <t>8,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-59,44</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>3,59</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>3,6</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>-62,87</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 4,83</t>
+          <t>-6,96; 4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 9,2</t>
+          <t>-4,5; 9,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-71,74; -61,06</t>
+          <t>2,41; 14,7</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 14,6</t>
+          <t>-2,01; 12,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 11,93</t>
+          <t>-0,37; 8,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-64,57; -54,98</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-0,86; 7,97</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 8,94</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>-66,27; -59,09</t>
+          <t>-1,0; 9,1</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>5,71%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>5,73%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 7,98</t>
+          <t>-9,92; 7,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 14,81</t>
+          <t>-6,6; 14,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,86; 26,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,21; 26,31</t>
+          <t>-3,15; 22,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 21,51</t>
+          <t>-0,56; 14,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-1,34; 13,21</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 15,02</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-1,61; 14,97</t>
         </is>
       </c>
     </row>
@@ -1506,37 +1235,22 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-61,01</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-66,03</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,96</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
           <t>1,64</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-63,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 12,85</t>
+          <t>-6,16; 12,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 9,3</t>
+          <t>-8,97; 9,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-67,58; -54,64</t>
+          <t>-10,71; 7,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 8,31</t>
+          <t>-6,02; 12,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 12,5</t>
+          <t>-5,97; 7,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-72,4; -58,81</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-6,05; 7,52</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-4,86; 8,61</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-68,07; -58,76</t>
+          <t>-5,59; 7,82</t>
         </is>
       </c>
     </row>
@@ -1612,37 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-2,1%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
           <t>2,57%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 23,36</t>
+          <t>-9,29; 23,44</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 16,25</t>
+          <t>-13,59; 17,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,35; 12,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 13,21</t>
+          <t>-8,56; 20,26</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 20,96</t>
+          <t>-8,95; 12,06</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 12,61</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-7,44; 14,14</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,1; 12,98</t>
         </is>
       </c>
     </row>
@@ -1722,37 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-65,76</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-62,06</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,9</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
           <t>-1,84</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-63,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 7,8</t>
+          <t>-7,94; 8,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 5,01</t>
+          <t>-11,44; 4,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-71,36; -60,35</t>
+          <t>-6,11; 10,2</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 11,06</t>
+          <t>-8,37; 7,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,06</t>
+          <t>-4,72; 6,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-67,69; -56,29</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-4,63; 6,77</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 3,62</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-67,98; -59,98</t>
+          <t>-7,48; 3,76</t>
         </is>
       </c>
     </row>
@@ -1828,37 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
           <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 12,66</t>
+          <t>-11,61; 13,8</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 8,13</t>
+          <t>-16,55; 7,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 17,66</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 19,31</t>
+          <t>-12,65; 13,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-12,56; 12,47</t>
+          <t>-7,04; 10,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-7,03; 11,03</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-12,07; 5,98</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-11,35; 6,1</t>
         </is>
       </c>
     </row>
@@ -1938,37 +1547,22 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-68,19</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-12,22</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-12,22</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-63,4</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
           <t>-10,42</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>-65,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 3,21</t>
+          <t>-7,93; 2,66</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-14,13; -3,19</t>
+          <t>-13,99; -2,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-71,89; -64,07</t>
+          <t>-4,27; 6,37</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 6,31</t>
+          <t>-18,2; -6,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -6,73</t>
+          <t>-4,48; 2,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-67,23; -59,62</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 2,87</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; -6,8</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>-68,28; -63,1</t>
+          <t>-14,5; -6,67</t>
         </is>
       </c>
     </row>
@@ -2044,37 +1623,22 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>-19,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>-0,98%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>-0,98%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
           <t>-15,85%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 4,95</t>
+          <t>-11,18; 4,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,83; -4,71</t>
+          <t>-20,02; -4,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 10,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 10,37</t>
+          <t>-27,12; -10,59</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,4; -11,11</t>
+          <t>-6,63; 4,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>-6,37; 4,56</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>-21,12; -10,57</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-21,59; -10,55</t>
         </is>
       </c>
     </row>
@@ -2154,37 +1703,22 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-63,29</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>-62,97</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
           <t>-1,41</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>-63,13</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 5,18</t>
+          <t>-4,34; 5,31</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,7</t>
+          <t>-5,98; 3,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-66,76; -59,96</t>
+          <t>-4,09; 5,42</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,54</t>
+          <t>-7,09; 3,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 3,6</t>
+          <t>-2,99; 3,91</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-66,62; -59,33</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 4,08</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 1,94</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>-65,53; -60,55</t>
+          <t>-4,78; 2,24</t>
         </is>
       </c>
     </row>
@@ -2260,37 +1779,22 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>-2,59%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
           <t>-2,24%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 8,56</t>
+          <t>-6,6; 8,77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 6,03</t>
+          <t>-9,15; 6,44</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,17; 8,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 9,2</t>
+          <t>-10,8; 5,5</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 5,94</t>
+          <t>-4,62; 6,34</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 6,62</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>-7,68; 3,18</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-7,33; 3,65</t>
         </is>
       </c>
     </row>
@@ -2370,37 +1859,22 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-65,41</t>
+          <t>2,32</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-62,57</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
           <t>-2,04</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>-63,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 1,84</t>
+          <t>-2,81; 1,8</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 0,38</t>
+          <t>-4,13; 0,58</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-66,98; -63,7</t>
+          <t>-0,32; 4,63</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 4,46</t>
+          <t>-4,56; 0,08</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 0,18</t>
+          <t>-0,93; 2,63</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-64,33; -60,78</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 2,69</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>-3,62; -0,43</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>-65,08; -62,75</t>
+          <t>-3,73; -0,49</t>
         </is>
       </c>
     </row>
@@ -2476,37 +1935,22 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
           <t>-3,19%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,85</t>
+          <t>-4,19; 2,77</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 0,58</t>
+          <t>-6,24; 0,91</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 7,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,23</t>
+          <t>-7,13; 0,13</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 0,28</t>
+          <t>-1,43; 4,15</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 4,27</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; -0,68</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-5,77; -0,77</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2003,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_camb/P73-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P73-Provincia-trans_camb.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,77; 11,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,96; 18,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 13,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; 20,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,01; 34,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,75; 23,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,11</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 4,9</t>
+          <t>-8,08; 5,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,7</t>
+          <t>-0,78; 13,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,45</t>
+          <t>-2,15; 7,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1145,7 +1145,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,6%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 7,87</t>
+          <t>-11,64; 9,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 26,76</t>
+          <t>-0,91; 25,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 14,13</t>
+          <t>-3,3; 12,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">

--- a/data/trans_camb/P73-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P73-Provincia-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 11,83</t>
+          <t>-5,35; 11,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 11,72</t>
+          <t>-4,5; 11,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 18,96</t>
+          <t>2,87; 19,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 12,15</t>
+          <t>-4,19; 13,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,36; 13,32</t>
+          <t>1,09; 13,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,26</t>
+          <t>-1,84; 9,48</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 20,18</t>
+          <t>-7,79; 20,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 20,4</t>
+          <t>-6,61; 21,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 34,98</t>
+          <t>4,77; 37,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 22,72</t>
+          <t>-6,63; 24,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 23,62</t>
+          <t>1,74; 22,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 18,54</t>
+          <t>-2,96; 16,51</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 7,63</t>
+          <t>-5,01; 7,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 4,71</t>
+          <t>-7,97; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 8,61</t>
+          <t>-3,81; 8,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,75</t>
+          <t>-6,71; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 6,52</t>
+          <t>-2,49; 6,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,3</t>
+          <t>-5,49; 3,29</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 12,35</t>
+          <t>-7,34; 12,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 7,47</t>
+          <t>-11,57; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 14,14</t>
+          <t>-5,64; 13,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 9,46</t>
+          <t>-9,91; 8,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 10,2</t>
+          <t>-3,7; 9,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,66; 5,21</t>
+          <t>-8,09; 5,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 0,24</t>
+          <t>-14,84; 0,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 6,99</t>
+          <t>-7,65; 6,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 6,43</t>
+          <t>-8,7; 5,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 3,79</t>
+          <t>-11,58; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 1,65</t>
+          <t>-9,32; 1,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,05</t>
+          <t>-7,43; 2,9</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 0,37</t>
+          <t>-20,75; 0,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 10,75</t>
+          <t>-10,56; 10,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 11,1</t>
+          <t>-13,39; 10,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,68; 6,26</t>
+          <t>-17,63; 5,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 2,75</t>
+          <t>-13,34; 1,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 4,9</t>
+          <t>-10,92; 4,56</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 5,81</t>
+          <t>-7,56; 6,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 9,17</t>
+          <t>-4,5; 9,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 13,78</t>
+          <t>-0,14; 13,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 12,65</t>
+          <t>-2,17; 11,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,68</t>
+          <t>-1,93; 7,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,1</t>
+          <t>-0,83; 8,53</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 9,27</t>
+          <t>-10,88; 9,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 14,47</t>
+          <t>-6,41; 15,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 25,03</t>
+          <t>-0,29; 24,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 22,42</t>
+          <t>-3,61; 20,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 12,81</t>
+          <t>-2,97; 12,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 14,97</t>
+          <t>-1,46; 13,82</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 12,83</t>
+          <t>-6,75; 13,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 9,61</t>
+          <t>-9,32; 9,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-10,71; 7,66</t>
+          <t>-10,39; 8,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 12,59</t>
+          <t>-4,79; 12,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,3</t>
+          <t>-5,43; 8,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,82</t>
+          <t>-4,77; 8,22</t>
         </is>
       </c>
     </row>
@@ -1339,39 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 23,44</t>
+          <t>-10,01; 23,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,59; 17,14</t>
+          <t>-14,26; 17,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-15,35; 12,36</t>
+          <t>-14,93; 13,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 20,26</t>
+          <t>-6,82; 20,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 12,06</t>
+          <t>-8,04; 13,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 12,98</t>
+          <t>-7,11; 13,75</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 8,45</t>
+          <t>-8,23; 7,45</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 4,62</t>
+          <t>-11,4; 5,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 10,2</t>
+          <t>-6,55; 9,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 7,88</t>
+          <t>-8,63; 7,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,51</t>
+          <t>-5,23; 6,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 3,76</t>
+          <t>-8,1; 4,05</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 13,8</t>
+          <t>-11,88; 11,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 7,4</t>
+          <t>-16,88; 8,87</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 17,66</t>
+          <t>-9,85; 16,42</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 13,61</t>
+          <t>-13,56; 13,42</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 10,63</t>
+          <t>-7,69; 10,91</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 6,1</t>
+          <t>-12,16; 6,67</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 2,66</t>
+          <t>-7,21; 3,32</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-13,99; -2,92</t>
+          <t>-13,81; -3,03</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 6,37</t>
+          <t>-4,15; 6,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -6,37</t>
+          <t>-17,75; -6,31</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 2,96</t>
+          <t>-4,61; 2,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-14,5; -6,67</t>
+          <t>-14,34; -6,64</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 4,11</t>
+          <t>-10,23; 5,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -4,64</t>
+          <t>-19,74; -4,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 10,52</t>
+          <t>-6,21; 11,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -10,59</t>
+          <t>-26,9; -10,4</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,63</t>
+          <t>-6,9; 4,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -10,55</t>
+          <t>-20,97; -10,02</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 5,31</t>
+          <t>-4,17; 5,43</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,84</t>
+          <t>-6,62; 3,29</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 5,42</t>
+          <t>-4,64; 5,35</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,39</t>
+          <t>-6,15; 3,26</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 3,91</t>
+          <t>-2,9; 4,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,24</t>
+          <t>-4,67; 2,3</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-6,6; 8,77</t>
+          <t>-6,35; 9,07</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 6,44</t>
+          <t>-10,24; 5,4</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 8,96</t>
+          <t>-6,98; 8,83</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 5,5</t>
+          <t>-9,46; 5,48</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 6,34</t>
+          <t>-4,45; 7,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 3,65</t>
+          <t>-7,3; 3,75</t>
         </is>
       </c>
     </row>
@@ -1887,32 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,8</t>
+          <t>-2,73; 2,11</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 0,58</t>
+          <t>-4,31; 0,63</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 4,63</t>
+          <t>-0,09; 4,5</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 0,08</t>
+          <t>-4,46; 0,11</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 2,63</t>
+          <t>-0,59; 2,65</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,73; -0,49</t>
+          <t>-3,61; -0,46</t>
         </is>
       </c>
     </row>
@@ -1963,32 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,77</t>
+          <t>-4,09; 3,32</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 0,91</t>
+          <t>-6,49; 0,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 7,52</t>
+          <t>-0,09; 7,37</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,13</t>
+          <t>-7,01; 0,2</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 4,15</t>
+          <t>-0,92; 4,21</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -0,77</t>
+          <t>-5,57; -0,71</t>
         </is>
       </c>
     </row>
